--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-ConsentCS.xlsx
+++ b/output/CodeSystem-ConsentCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
